--- a/LDA/saved-outputs/showcase-compare.xlsx
+++ b/LDA/saved-outputs/showcase-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadli/PycharmProjects/topic_modeling/LDA/saved-outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AF55C-3871-CD4D-9603-E2F13EF9FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645068A-73D0-6340-B5E1-CF800A496E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{D448C41E-97B7-E542-9B5F-318E4814C864}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>showcase</t>
   </si>
@@ -69,9 +69,6 @@
     <t>management?</t>
   </si>
   <si>
-    <t>salar</t>
-  </si>
-  <si>
     <t>salary, talent, competitive, compensation, increase, benefits, salaries</t>
   </si>
   <si>
@@ -79,15 +76,126 @@
   </si>
   <si>
     <t>salary, talent, compensation, increase, level, competitive, salaries, benefits</t>
+  </si>
+  <si>
+    <t>life, balance, flexibility, support, personal, resources, provide</t>
+  </si>
+  <si>
+    <t>life, balance, resources, meetings, personal, support, hours, stress</t>
+  </si>
+  <si>
+    <t>life, balance, stress, resources, hours, personal, support, meeting, family</t>
+  </si>
+  <si>
+    <t>1 and 2</t>
+  </si>
+  <si>
+    <t>customers, customer, sales, resources, field, time, business, compliance, products, oncology</t>
+  </si>
+  <si>
+    <t>customers, sales, field, customer, resources, time, oncology, compliance, virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customers, field, time, sales, customer, resources, virtual, market, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 and 2 </t>
+  </si>
+  <si>
+    <t>future, changes, pipeline, projects, keytruda, products, support, business</t>
+  </si>
+  <si>
+    <t>pipeline, future, products, processes, keytruda, resources, simplify, business, market, support, product</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">div, inclusion, focus, support, culture, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(talent + development + opportunities)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">div, political, inclusion, politics, focus, mission, great, feel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(pipeline+products)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">div, inclusion, great, feel, culture, focu, different, everyone </t>
+  </si>
+  <si>
+    <t>career, develop, opport, feel, great, team, support, growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">career, opport, develop, growth, feel, manager, great, team, leader, path, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opport, develop, career, growth, provide, support, role, grow talent, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 and 2 </t>
+  </si>
+  <si>
+    <t>3 and 2 and 1</t>
+  </si>
+  <si>
+    <t>home, office, support, need, time pandemic, resources, provide, site</t>
+  </si>
+  <si>
+    <t>home, office, pandemic, flex, remote, support, balance, covid allow, flexible, site, back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home, office, pandemic, flex, flex, remote, allow,covid support, feel life, back </t>
+  </si>
+  <si>
+    <t>pipeline, future, orgnanon, keytruda, product, digital business, strategy</t>
+  </si>
+  <si>
+    <t>3 and 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,13 +222,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,53 +553,54 @@
   <dimension ref="B4:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -494,42 +609,134 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="2">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="2">
+      <c r="C10" s="1"/>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
